--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H2">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J2">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N2">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O2">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P2">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q2">
-        <v>2.851991817286428</v>
+        <v>24.145511991552</v>
       </c>
       <c r="R2">
-        <v>2.851991817286428</v>
+        <v>217.309607923968</v>
       </c>
       <c r="S2">
-        <v>0.001235447236874974</v>
+        <v>0.006493081397999124</v>
       </c>
       <c r="T2">
-        <v>0.001235447236874974</v>
+        <v>0.006493081397999123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H3">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J3">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N3">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O3">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P3">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q3">
-        <v>46.78077227424063</v>
+        <v>199.933812506304</v>
       </c>
       <c r="R3">
-        <v>46.78077227424063</v>
+        <v>1799.404312556736</v>
       </c>
       <c r="S3">
-        <v>0.02026484630663426</v>
+        <v>0.05376512700455201</v>
       </c>
       <c r="T3">
-        <v>0.02026484630663426</v>
+        <v>0.05376512700455201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H4">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J4">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N4">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O4">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P4">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q4">
-        <v>6.99387232328159</v>
+        <v>41.64485004</v>
       </c>
       <c r="R4">
-        <v>6.99387232328159</v>
+        <v>374.80365036</v>
       </c>
       <c r="S4">
-        <v>0.003029658144347621</v>
+        <v>0.01119890939615592</v>
       </c>
       <c r="T4">
-        <v>0.003029658144347621</v>
+        <v>0.01119890939615592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.67765829281956</v>
+        <v>28.479168</v>
       </c>
       <c r="H5">
-        <v>6.67765829281956</v>
+        <v>85.437504</v>
       </c>
       <c r="I5">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="J5">
-        <v>0.1653150776896478</v>
+        <v>0.4446244458164738</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N5">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O5">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P5">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q5">
-        <v>324.9981183885878</v>
+        <v>1387.679537836224</v>
       </c>
       <c r="R5">
-        <v>324.9981183885878</v>
+        <v>12489.11584052602</v>
       </c>
       <c r="S5">
-        <v>0.140785126001791</v>
+        <v>0.3731673280177668</v>
       </c>
       <c r="T5">
-        <v>0.140785126001791</v>
+        <v>0.3731673280177668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H6">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J6">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N6">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O6">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P6">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q6">
-        <v>7.727411298918456</v>
+        <v>15.36835321058178</v>
       </c>
       <c r="R6">
-        <v>7.727411298918456</v>
+        <v>138.315178895236</v>
       </c>
       <c r="S6">
-        <v>0.003347418067464417</v>
+        <v>0.00413277500118541</v>
       </c>
       <c r="T6">
-        <v>0.003347418067464417</v>
+        <v>0.004132775001185409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H7">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J7">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N7">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O7">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P7">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q7">
-        <v>126.7515096126915</v>
+        <v>127.2556759372164</v>
       </c>
       <c r="R7">
-        <v>126.7515096126915</v>
+        <v>1145.301083434947</v>
       </c>
       <c r="S7">
-        <v>0.05490717097138312</v>
+        <v>0.03422091287634912</v>
       </c>
       <c r="T7">
-        <v>0.05490717097138312</v>
+        <v>0.03422091287634912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H8">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J8">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N8">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O8">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P8">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q8">
-        <v>18.94974862359203</v>
+        <v>26.50648969631944</v>
       </c>
       <c r="R8">
-        <v>18.94974862359203</v>
+        <v>238.558407266875</v>
       </c>
       <c r="S8">
-        <v>0.00820879444134145</v>
+        <v>0.007127982841434235</v>
       </c>
       <c r="T8">
-        <v>0.00820879444134145</v>
+        <v>0.007127982841434235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0929734193091</v>
+        <v>18.12667766666667</v>
       </c>
       <c r="H9">
-        <v>18.0929734193091</v>
+        <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="J9">
-        <v>0.4479176943908711</v>
+        <v>0.2829985767855128</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N9">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O9">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P9">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q9">
-        <v>880.5755040884784</v>
+        <v>883.242785989612</v>
       </c>
       <c r="R9">
-        <v>880.5755040884784</v>
+        <v>7949.185073906508</v>
       </c>
       <c r="S9">
-        <v>0.3814543109106821</v>
+        <v>0.2375169060665441</v>
       </c>
       <c r="T9">
-        <v>0.3814543109106821</v>
+        <v>0.2375169060665441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H10">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J10">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N10">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O10">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P10">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q10">
-        <v>4.185570722125094</v>
+        <v>9.761367814744</v>
       </c>
       <c r="R10">
-        <v>4.185570722125094</v>
+        <v>87.85231033269601</v>
       </c>
       <c r="S10">
-        <v>0.001813136963455357</v>
+        <v>0.00262497460393954</v>
       </c>
       <c r="T10">
-        <v>0.001813136963455357</v>
+        <v>0.002624974603939539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H11">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I11">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J11">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N11">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O11">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P11">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q11">
-        <v>68.65525686387275</v>
+        <v>80.827753131138</v>
       </c>
       <c r="R11">
-        <v>68.65525686387275</v>
+        <v>727.4497781802421</v>
       </c>
       <c r="S11">
-        <v>0.02974059984159298</v>
+        <v>0.02173576524206574</v>
       </c>
       <c r="T11">
-        <v>0.02974059984159298</v>
+        <v>0.02173576524206574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H12">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I12">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J12">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N12">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O12">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P12">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q12">
-        <v>10.26417644439843</v>
+        <v>16.83586991125</v>
       </c>
       <c r="R12">
-        <v>10.26417644439843</v>
+        <v>151.52282920125</v>
       </c>
       <c r="S12">
-        <v>0.004446313046961908</v>
+        <v>0.004527411710222508</v>
       </c>
       <c r="T12">
-        <v>0.004446313046961908</v>
+        <v>0.004527411710222508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.8001021157819</v>
+        <v>11.513346</v>
       </c>
       <c r="H13">
-        <v>9.8001021157819</v>
+        <v>34.540038</v>
       </c>
       <c r="I13">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="J13">
-        <v>0.2426156852588661</v>
+        <v>0.179749460544048</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N13">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O13">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P13">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q13">
-        <v>476.9658176534671</v>
+        <v>561.000751715378</v>
       </c>
       <c r="R13">
-        <v>476.9658176534671</v>
+        <v>5049.006765438403</v>
       </c>
       <c r="S13">
-        <v>0.2066156354068558</v>
+        <v>0.1508613089878202</v>
       </c>
       <c r="T13">
-        <v>0.2066156354068558</v>
+        <v>0.1508613089878202</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H14">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I14">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J14">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N14">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O14">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P14">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q14">
-        <v>2.486881571014947</v>
+        <v>5.03017510618</v>
       </c>
       <c r="R14">
-        <v>2.486881571014947</v>
+        <v>45.27157595561999</v>
       </c>
       <c r="S14">
-        <v>0.001077286038032537</v>
+        <v>0.001352687672228409</v>
       </c>
       <c r="T14">
-        <v>0.001077286038032537</v>
+        <v>0.001352687672228409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H15">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I15">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J15">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N15">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O15">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P15">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q15">
-        <v>40.79192644996711</v>
+        <v>41.65171924723499</v>
       </c>
       <c r="R15">
-        <v>40.79192644996711</v>
+        <v>374.865473225115</v>
       </c>
       <c r="S15">
-        <v>0.01767055308993466</v>
+        <v>0.01120075662647069</v>
       </c>
       <c r="T15">
-        <v>0.01767055308993466</v>
+        <v>0.01120075662647069</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H16">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I16">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J16">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N16">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O16">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P16">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q16">
-        <v>6.09852107056508</v>
+        <v>8.675769146874998</v>
       </c>
       <c r="R16">
-        <v>6.09852107056508</v>
+        <v>78.08192232187498</v>
       </c>
       <c r="S16">
-        <v>0.002641803163664811</v>
+        <v>0.00233304124098169</v>
       </c>
       <c r="T16">
-        <v>0.002641803163664811</v>
+        <v>0.00233304124098169</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.82278856667571</v>
+        <v>5.932994999999999</v>
       </c>
       <c r="H17">
-        <v>5.82278856667571</v>
+        <v>17.798985</v>
       </c>
       <c r="I17">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="J17">
-        <v>0.144151542660615</v>
+        <v>0.09262751685396531</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N17">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O17">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P17">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q17">
-        <v>283.392058257768</v>
+        <v>289.091863905035</v>
       </c>
       <c r="R17">
-        <v>283.392058257768</v>
+        <v>2601.826775145315</v>
       </c>
       <c r="S17">
-        <v>0.122761900368983</v>
+        <v>0.07774103131428452</v>
       </c>
       <c r="T17">
-        <v>0.122761900368983</v>
+        <v>0.07774103131428452</v>
       </c>
     </row>
   </sheetData>
